--- a/Code/Results/Cases/Case_4_164/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_164/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.75093601416441</v>
+        <v>16.19292459086031</v>
       </c>
       <c r="C2">
-        <v>18.70842730726422</v>
+        <v>11.10604247870716</v>
       </c>
       <c r="D2">
-        <v>12.22102951431899</v>
+        <v>14.8455803421141</v>
       </c>
       <c r="E2">
-        <v>13.21833884288719</v>
+        <v>16.24748311274231</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>21.07122316974974</v>
+        <v>27.97909451974359</v>
       </c>
       <c r="H2">
-        <v>8.0852594829003</v>
+        <v>14.08430870042998</v>
       </c>
       <c r="I2">
-        <v>10.0283765273421</v>
+        <v>19.01267820699817</v>
       </c>
       <c r="J2">
-        <v>5.852660501827827</v>
+        <v>9.260850407519932</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.23580477671387</v>
+        <v>21.33706928720452</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.12216561626326</v>
+        <v>15.432680365463</v>
       </c>
       <c r="C3">
-        <v>17.49422696598059</v>
+        <v>10.45713507579169</v>
       </c>
       <c r="D3">
-        <v>11.69155632752432</v>
+        <v>14.7792772947598</v>
       </c>
       <c r="E3">
-        <v>12.65527866795253</v>
+        <v>16.18117960467449</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>20.50902600940733</v>
+        <v>28.09123420176989</v>
       </c>
       <c r="H3">
-        <v>8.154446702639524</v>
+        <v>14.15234660269855</v>
       </c>
       <c r="I3">
-        <v>10.45774263524232</v>
+        <v>19.17856015529042</v>
       </c>
       <c r="J3">
-        <v>5.754874485573085</v>
+        <v>9.267779451442314</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.20184866708868</v>
+        <v>21.44803872421981</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.06300571089274</v>
+        <v>14.9458988786319</v>
       </c>
       <c r="C4">
-        <v>16.70521454841316</v>
+        <v>10.03657523240876</v>
       </c>
       <c r="D4">
-        <v>11.36247569076382</v>
+        <v>14.74186032583804</v>
       </c>
       <c r="E4">
-        <v>12.3060039164463</v>
+        <v>16.14411074116382</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>20.20188258116395</v>
+        <v>28.17356870418759</v>
       </c>
       <c r="H4">
-        <v>8.206011444303304</v>
+        <v>14.19728410152631</v>
       </c>
       <c r="I4">
-        <v>10.7331058792751</v>
+        <v>19.28579696678489</v>
       </c>
       <c r="J4">
-        <v>5.697343125112423</v>
+        <v>9.273461692722238</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.2023059453</v>
+        <v>21.5227719296964</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.61646921538208</v>
+        <v>14.74272291016459</v>
       </c>
       <c r="C5">
-        <v>16.37272380413549</v>
+        <v>9.859713467324447</v>
       </c>
       <c r="D5">
-        <v>11.22755913703717</v>
+        <v>14.72745250121655</v>
       </c>
       <c r="E5">
-        <v>12.16297615658985</v>
+        <v>16.12993185548984</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>20.08619687137022</v>
+        <v>28.21048127797306</v>
       </c>
       <c r="H5">
-        <v>8.2291877753474</v>
+        <v>14.21639027623882</v>
       </c>
       <c r="I5">
-        <v>10.84814443018993</v>
+        <v>19.33085247603309</v>
       </c>
       <c r="J5">
-        <v>5.674537609949246</v>
+        <v>9.276136457802862</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.20758189547374</v>
+        <v>21.55487758731322</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.54141938007275</v>
+        <v>14.70870231809528</v>
       </c>
       <c r="C6">
-        <v>16.31685135210769</v>
+        <v>9.830017578427753</v>
       </c>
       <c r="D6">
-        <v>11.20511316080835</v>
+        <v>14.72511114131523</v>
       </c>
       <c r="E6">
-        <v>12.13919076072256</v>
+        <v>16.12763375391441</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>20.06755581373752</v>
+        <v>28.21681266984735</v>
       </c>
       <c r="H6">
-        <v>8.233163413430281</v>
+        <v>14.21961074619763</v>
       </c>
       <c r="I6">
-        <v>10.86741403768399</v>
+        <v>19.338415835678</v>
       </c>
       <c r="J6">
-        <v>5.670789573736277</v>
+        <v>9.276602299175654</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.20875736002188</v>
+        <v>21.56030821284759</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.05704405127202</v>
+        <v>14.94317793302778</v>
       </c>
       <c r="C7">
-        <v>16.70077487290266</v>
+        <v>10.0342120759383</v>
       </c>
       <c r="D7">
-        <v>11.36065918731369</v>
+        <v>14.74166260150619</v>
       </c>
       <c r="E7">
-        <v>12.30407753045588</v>
+        <v>16.14391575251711</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>20.20028419698089</v>
+        <v>28.17405295296095</v>
       </c>
       <c r="H7">
-        <v>8.206315405148246</v>
+        <v>14.19753856184676</v>
       </c>
       <c r="I7">
-        <v>10.73464603241545</v>
+        <v>19.28639911002504</v>
       </c>
       <c r="J7">
-        <v>5.697032965087541</v>
+        <v>9.273496310958683</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.20235685157963</v>
+        <v>21.52319824219246</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.20155977866845</v>
+        <v>15.93506117513978</v>
       </c>
       <c r="C8">
-        <v>18.29877795270988</v>
+        <v>10.88693629131274</v>
       </c>
       <c r="D8">
-        <v>12.0393988231037</v>
+        <v>14.82204290276501</v>
       </c>
       <c r="E8">
-        <v>13.02504446053793</v>
+        <v>16.22387291092954</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>20.86944733126278</v>
+        <v>28.01494546075791</v>
       </c>
       <c r="H8">
-        <v>8.107155639315131</v>
+        <v>14.10711110913554</v>
       </c>
       <c r="I8">
-        <v>10.17390378605664</v>
+        <v>19.06875769444949</v>
       </c>
       <c r="J8">
-        <v>5.818428023531119</v>
+        <v>9.2629433365572</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.21951640504197</v>
+        <v>21.37395760414579</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.941328645027</v>
+        <v>17.71361224664487</v>
       </c>
       <c r="C9">
-        <v>21.08911194166604</v>
+        <v>12.38077941009831</v>
       </c>
       <c r="D9">
-        <v>13.33181967306416</v>
+        <v>15.00523214745036</v>
       </c>
       <c r="E9">
-        <v>14.40325811687417</v>
+        <v>16.40901713336517</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>22.48440004433949</v>
+        <v>27.811109783795</v>
       </c>
       <c r="H9">
-        <v>7.990447876027379</v>
+        <v>13.95493120571188</v>
       </c>
       <c r="I9">
-        <v>9.174684589015373</v>
+        <v>18.68461377918781</v>
       </c>
       <c r="J9">
-        <v>6.076023654302754</v>
+        <v>9.253567512635106</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.43356955918061</v>
+        <v>21.13398833685594</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.41004644615627</v>
+        <v>18.91014639794101</v>
       </c>
       <c r="C10">
-        <v>22.9328552754741</v>
+        <v>13.36689941352887</v>
       </c>
       <c r="D10">
-        <v>14.25025834617903</v>
+        <v>15.1545746549742</v>
       </c>
       <c r="E10">
-        <v>15.38607951788687</v>
+        <v>16.56151696806935</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>23.85322582340975</v>
+        <v>27.72881607412194</v>
       </c>
       <c r="H10">
-        <v>7.960217991640775</v>
+        <v>13.85853752454554</v>
       </c>
       <c r="I10">
-        <v>8.515445648916716</v>
+        <v>18.42828057701817</v>
       </c>
       <c r="J10">
-        <v>6.276703734082532</v>
+        <v>9.253561731617419</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.71512796878728</v>
+        <v>20.99026917179188</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.47376501976285</v>
+        <v>19.42920841481017</v>
       </c>
       <c r="C11">
-        <v>23.72761191762407</v>
+        <v>13.79098092761027</v>
       </c>
       <c r="D11">
-        <v>14.66021166013632</v>
+        <v>15.2255206544989</v>
       </c>
       <c r="E11">
-        <v>15.8255458354856</v>
+        <v>16.63427635601287</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>24.51441364352806</v>
+        <v>27.7063056236163</v>
       </c>
       <c r="H11">
-        <v>7.960353268789025</v>
+        <v>13.81805050374204</v>
       </c>
       <c r="I11">
-        <v>8.236179264060079</v>
+        <v>18.31727133450416</v>
       </c>
       <c r="J11">
-        <v>6.370387849711312</v>
+        <v>9.255048044525964</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.87287227277044</v>
+        <v>20.93206123393574</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.86814170528848</v>
+        <v>19.62204577407954</v>
       </c>
       <c r="C12">
-        <v>24.0223137526745</v>
+        <v>13.94802703178554</v>
       </c>
       <c r="D12">
-        <v>14.81425847764051</v>
+        <v>15.25280083542013</v>
       </c>
       <c r="E12">
-        <v>15.99079720765383</v>
+        <v>16.66229757798371</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>24.77021521576102</v>
+        <v>27.69994675056454</v>
       </c>
       <c r="H12">
-        <v>7.962556926384136</v>
+        <v>13.80320432953743</v>
       </c>
       <c r="I12">
-        <v>8.13389030968991</v>
+        <v>18.27603889190185</v>
       </c>
       <c r="J12">
-        <v>6.40620155902669</v>
+        <v>9.2558243175234</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.93706058209854</v>
+        <v>20.91105847665222</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.78357894088699</v>
+        <v>19.58068151062172</v>
       </c>
       <c r="C13">
-        <v>23.95912150163916</v>
+        <v>13.9143622283031</v>
       </c>
       <c r="D13">
-        <v>14.78113563090815</v>
+        <v>15.24690742549625</v>
       </c>
       <c r="E13">
-        <v>15.95526002648344</v>
+        <v>16.65624215338942</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>24.71488424630099</v>
+        <v>27.7012196680724</v>
       </c>
       <c r="H13">
-        <v>7.96198409900803</v>
+        <v>13.80638010243372</v>
       </c>
       <c r="I13">
-        <v>8.155756774252234</v>
+        <v>18.28488327125296</v>
       </c>
       <c r="J13">
-        <v>6.398473506952372</v>
+        <v>9.255647652251922</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.92303561628076</v>
+        <v>20.91553544283655</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.50637899928179</v>
+        <v>19.44514827422049</v>
       </c>
       <c r="C14">
-        <v>23.75198217043719</v>
+        <v>13.803972330429</v>
       </c>
       <c r="D14">
-        <v>14.6729094017394</v>
+        <v>15.22775681210081</v>
       </c>
       <c r="E14">
-        <v>15.83916482377869</v>
+        <v>16.63657238986948</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>24.53535050636449</v>
+        <v>27.70573897878478</v>
       </c>
       <c r="H14">
-        <v>7.960490528140377</v>
+        <v>13.81681936190753</v>
       </c>
       <c r="I14">
-        <v>8.227691188635665</v>
+        <v>18.31386299947122</v>
       </c>
       <c r="J14">
-        <v>6.373327530774751</v>
+        <v>9.255107635542663</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.87806281598836</v>
+        <v>20.93031244834693</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.33549116836277</v>
+        <v>19.36164339465563</v>
       </c>
       <c r="C15">
-        <v>23.62429084203361</v>
+        <v>13.73589327046192</v>
       </c>
       <c r="D15">
-        <v>14.60646070868405</v>
+        <v>15.21607992967335</v>
       </c>
       <c r="E15">
-        <v>15.76789980501299</v>
+        <v>16.62458459309157</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>24.42608405023921</v>
+        <v>27.70878969971163</v>
       </c>
       <c r="H15">
-        <v>7.959860638496609</v>
+        <v>13.82327697451889</v>
       </c>
       <c r="I15">
-        <v>8.272220981041585</v>
+        <v>18.33171865304028</v>
       </c>
       <c r="J15">
-        <v>6.357968691803542</v>
+        <v>9.254804634107902</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.85110094341617</v>
+        <v>20.93949938276912</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.33934470475984</v>
+        <v>18.87570839600928</v>
       </c>
       <c r="C16">
-        <v>22.88003690155271</v>
+        <v>13.33868963914241</v>
       </c>
       <c r="D16">
-        <v>14.22330294731018</v>
+        <v>15.14999717855406</v>
       </c>
       <c r="E16">
-        <v>15.35719954154126</v>
+        <v>16.55682858336014</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>23.81078069376686</v>
+        <v>27.73058921520664</v>
       </c>
       <c r="H16">
-        <v>7.960501827971221</v>
+        <v>13.86125127042037</v>
       </c>
       <c r="I16">
-        <v>8.534151152565506</v>
+        <v>18.43564788068102</v>
       </c>
       <c r="J16">
-        <v>6.270628813468766</v>
+        <v>9.253494503990256</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.70543250054409</v>
+        <v>20.99421819258124</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.7131179185162</v>
+        <v>18.57106748443991</v>
       </c>
       <c r="C17">
-        <v>22.41224542811921</v>
+        <v>13.08872426015816</v>
       </c>
       <c r="D17">
-        <v>13.98618466595522</v>
+        <v>15.11021556477444</v>
       </c>
       <c r="E17">
-        <v>15.1032392226183</v>
+        <v>16.51611718153361</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>23.44309244607878</v>
+        <v>27.74779969035685</v>
       </c>
       <c r="H17">
-        <v>7.964561776085387</v>
+        <v>13.88540987048092</v>
       </c>
       <c r="I17">
-        <v>8.700435973294269</v>
+        <v>18.50083838363872</v>
       </c>
       <c r="J17">
-        <v>6.217656411694588</v>
+        <v>9.253071691386628</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.62380786483065</v>
+        <v>21.02962885419903</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.34733969224082</v>
+        <v>18.39347390736037</v>
       </c>
       <c r="C18">
-        <v>22.1390409120399</v>
+        <v>12.94264455596891</v>
       </c>
       <c r="D18">
-        <v>13.8490641895478</v>
+        <v>15.08761863156008</v>
       </c>
       <c r="E18">
-        <v>14.95645294012555</v>
+        <v>16.49302095202934</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>23.23523889139517</v>
+        <v>27.75910256995059</v>
       </c>
       <c r="H18">
-        <v>7.968194565668626</v>
+        <v>13.89962168575926</v>
       </c>
       <c r="I18">
-        <v>8.797983576283659</v>
+        <v>18.53886117825355</v>
       </c>
       <c r="J18">
-        <v>6.187413697574367</v>
+        <v>9.252968693581685</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.57964156500844</v>
+        <v>21.05067058125577</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.2225306156144</v>
+        <v>18.33293935146496</v>
       </c>
       <c r="C19">
-        <v>22.04582498421128</v>
+        <v>12.89278909977518</v>
       </c>
       <c r="D19">
-        <v>13.8025134224607</v>
+        <v>15.08001708800867</v>
       </c>
       <c r="E19">
-        <v>14.90663329680617</v>
+        <v>16.48525644607966</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>23.16549036037447</v>
+        <v>27.76317002116985</v>
       </c>
       <c r="H19">
-        <v>7.969642736623054</v>
+        <v>13.90448785476236</v>
       </c>
       <c r="I19">
-        <v>8.831325483519501</v>
+        <v>18.55182556768603</v>
       </c>
       <c r="J19">
-        <v>6.177213015916161</v>
+        <v>9.252957917287134</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.56515932784179</v>
+        <v>21.05791053426872</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.78035858691724</v>
+        <v>18.60374324238435</v>
       </c>
       <c r="C20">
-        <v>22.46247096550582</v>
+        <v>13.11557235299481</v>
       </c>
       <c r="D20">
-        <v>14.01150305606209</v>
+        <v>15.11442108117771</v>
       </c>
       <c r="E20">
-        <v>15.13034830591858</v>
+        <v>16.52041800087036</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>23.48185852351664</v>
+        <v>27.7458221637633</v>
       </c>
       <c r="H20">
-        <v>7.963994170988322</v>
+        <v>13.88280538427261</v>
       </c>
       <c r="I20">
-        <v>8.682534295541092</v>
+        <v>18.49384421186721</v>
       </c>
       <c r="J20">
-        <v>6.223272118732199</v>
+        <v>9.253102195606163</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.63220758160778</v>
+        <v>21.02578946582874</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.58802732533659</v>
+        <v>19.4850592697996</v>
       </c>
       <c r="C21">
-        <v>23.81299320957272</v>
+        <v>13.83649283882946</v>
       </c>
       <c r="D21">
-        <v>14.70473087380211</v>
+        <v>15.23337071217189</v>
       </c>
       <c r="E21">
-        <v>15.87329684797936</v>
+        <v>16.64233730134185</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>24.58793757263334</v>
+        <v>27.70435264203561</v>
       </c>
       <c r="H21">
-        <v>7.960869558958975</v>
+        <v>13.81373991078994</v>
       </c>
       <c r="I21">
-        <v>8.206463732731576</v>
+        <v>18.30532912544147</v>
       </c>
       <c r="J21">
-        <v>6.380704395151436</v>
+        <v>9.255260464720074</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.89115014227703</v>
+        <v>20.92594381196603</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.72035425281898</v>
+        <v>20.03933558808188</v>
       </c>
       <c r="C22">
-        <v>24.65921276050146</v>
+        <v>14.28699190517767</v>
       </c>
       <c r="D22">
-        <v>15.15082295030442</v>
+        <v>15.31351804096206</v>
       </c>
       <c r="E22">
-        <v>16.35205070788196</v>
+        <v>16.72474226724418</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>25.34239535405011</v>
+        <v>27.68987812674984</v>
       </c>
       <c r="H22">
-        <v>7.971447030622919</v>
+        <v>13.7714316599566</v>
       </c>
       <c r="I22">
-        <v>7.915835812806556</v>
+        <v>18.18681177917308</v>
       </c>
       <c r="J22">
-        <v>6.48556153963156</v>
+        <v>9.257914719062025</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.08641761073216</v>
+        <v>20.86675059454625</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.12046755215111</v>
+        <v>19.74552033521141</v>
       </c>
       <c r="C23">
-        <v>24.21087841228071</v>
+        <v>14.04844780069682</v>
       </c>
       <c r="D23">
-        <v>14.91338912389697</v>
+        <v>15.27052789925877</v>
       </c>
       <c r="E23">
-        <v>16.09717019789776</v>
+        <v>16.68051817929728</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>24.93687307923807</v>
+        <v>27.69644236209484</v>
       </c>
       <c r="H23">
-        <v>7.964595014428862</v>
+        <v>13.79375282215762</v>
       </c>
       <c r="I23">
-        <v>8.06887440268612</v>
+        <v>18.24963792558402</v>
       </c>
       <c r="J23">
-        <v>6.429419068814076</v>
+        <v>9.256384542389037</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.97976084307622</v>
+        <v>20.89778581097265</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.74997700466083</v>
+        <v>18.5889781610148</v>
       </c>
       <c r="C24">
-        <v>22.43977728953301</v>
+        <v>13.10344171471739</v>
       </c>
       <c r="D24">
-        <v>14.00005909236639</v>
+        <v>15.11251891221399</v>
       </c>
       <c r="E24">
-        <v>15.1180947168661</v>
+        <v>16.51847263566404</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>23.4643213594507</v>
+        <v>27.74671181804856</v>
       </c>
       <c r="H24">
-        <v>7.96424675193852</v>
+        <v>13.88398186735103</v>
       </c>
       <c r="I24">
-        <v>8.69062161159845</v>
+        <v>18.49700458257427</v>
       </c>
       <c r="J24">
-        <v>6.22073259725799</v>
+        <v>9.253087968253459</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.62840148495608</v>
+        <v>21.02752312430047</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.97898132829382</v>
+        <v>17.25128556918714</v>
       </c>
       <c r="C25">
-        <v>20.37072868270118</v>
+        <v>11.99607291901273</v>
       </c>
       <c r="D25">
-        <v>12.98719159226082</v>
+        <v>14.95301959731817</v>
       </c>
       <c r="E25">
-        <v>14.03515458228279</v>
+        <v>16.35597486941472</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>22.01517900705474</v>
+        <v>27.85450668910556</v>
       </c>
       <c r="H25">
-        <v>8.012877468813283</v>
+        <v>13.99339927526547</v>
       </c>
       <c r="I25">
-        <v>9.433057006945054</v>
+        <v>18.78398001240804</v>
       </c>
       <c r="J25">
-        <v>6.004296319134811</v>
+        <v>9.254893617482903</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.35480407820877</v>
+        <v>21.19321717036284</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_164/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_164/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.19292459086031</v>
+        <v>24.7509360141644</v>
       </c>
       <c r="C2">
-        <v>11.10604247870716</v>
+        <v>18.70842730726429</v>
       </c>
       <c r="D2">
-        <v>14.8455803421141</v>
+        <v>12.22102951431902</v>
       </c>
       <c r="E2">
-        <v>16.24748311274231</v>
+        <v>13.2183388428872</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>27.97909451974359</v>
+        <v>21.07122316974965</v>
       </c>
       <c r="H2">
-        <v>14.08430870042998</v>
+        <v>8.085259482900305</v>
       </c>
       <c r="I2">
-        <v>19.01267820699817</v>
+        <v>10.0283765273421</v>
       </c>
       <c r="J2">
-        <v>9.260850407519932</v>
+        <v>5.852660501827785</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.33706928720452</v>
+        <v>13.23580477671382</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.432680365463</v>
+        <v>23.12216561626325</v>
       </c>
       <c r="C3">
-        <v>10.45713507579169</v>
+        <v>17.49422696598057</v>
       </c>
       <c r="D3">
-        <v>14.7792772947598</v>
+        <v>11.69155632752432</v>
       </c>
       <c r="E3">
-        <v>16.18117960467449</v>
+        <v>12.65527866795255</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>28.09123420176989</v>
+        <v>20.50902600940752</v>
       </c>
       <c r="H3">
-        <v>14.15234660269855</v>
+        <v>8.15444670263958</v>
       </c>
       <c r="I3">
-        <v>19.17856015529042</v>
+        <v>10.45774263524251</v>
       </c>
       <c r="J3">
-        <v>9.267779451442314</v>
+        <v>5.7548744855731</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.44803872421981</v>
+        <v>13.2018486670888</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.9458988786319</v>
+        <v>22.06300571089276</v>
       </c>
       <c r="C4">
-        <v>10.03657523240876</v>
+        <v>16.70521454841306</v>
       </c>
       <c r="D4">
-        <v>14.74186032583804</v>
+        <v>11.36247569076376</v>
       </c>
       <c r="E4">
-        <v>16.14411074116382</v>
+        <v>12.30600391644634</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>28.17356870418759</v>
+        <v>20.201882581164</v>
       </c>
       <c r="H4">
-        <v>14.19728410152631</v>
+        <v>8.206011444303352</v>
       </c>
       <c r="I4">
-        <v>19.28579696678489</v>
+        <v>10.73310587927512</v>
       </c>
       <c r="J4">
-        <v>9.273461692722238</v>
+        <v>5.697343125112441</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.5227719296964</v>
+        <v>13.20230594530006</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.74272291016459</v>
+        <v>21.61646921538211</v>
       </c>
       <c r="C5">
-        <v>9.859713467324447</v>
+        <v>16.37272380413547</v>
       </c>
       <c r="D5">
-        <v>14.72745250121655</v>
+        <v>11.22755913703711</v>
       </c>
       <c r="E5">
-        <v>16.12993185548984</v>
+        <v>12.1629761565898</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>28.21048127797306</v>
+        <v>20.08619687137014</v>
       </c>
       <c r="H5">
-        <v>14.21639027623882</v>
+        <v>8.229187775347347</v>
       </c>
       <c r="I5">
-        <v>19.33085247603309</v>
+        <v>10.84814443018984</v>
       </c>
       <c r="J5">
-        <v>9.276136457802862</v>
+        <v>5.674537609949243</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.55487758731322</v>
+        <v>13.20758189547367</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.70870231809528</v>
+        <v>21.5414193800728</v>
       </c>
       <c r="C6">
-        <v>9.830017578427753</v>
+        <v>16.3168513521076</v>
       </c>
       <c r="D6">
-        <v>14.72511114131523</v>
+        <v>11.20511316080826</v>
       </c>
       <c r="E6">
-        <v>16.12763375391441</v>
+        <v>12.13919076072253</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>28.21681266984735</v>
+        <v>20.06755581373726</v>
       </c>
       <c r="H6">
-        <v>14.21961074619763</v>
+        <v>8.233163413430169</v>
       </c>
       <c r="I6">
-        <v>19.338415835678</v>
+        <v>10.86741403768367</v>
       </c>
       <c r="J6">
-        <v>9.276602299175654</v>
+        <v>5.670789573736299</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.56030821284759</v>
+        <v>13.20875736002169</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.94317793302778</v>
+        <v>22.05704405127204</v>
       </c>
       <c r="C7">
-        <v>10.0342120759383</v>
+        <v>16.70077487290251</v>
       </c>
       <c r="D7">
-        <v>14.74166260150619</v>
+        <v>11.36065918731367</v>
       </c>
       <c r="E7">
-        <v>16.14391575251711</v>
+        <v>12.30407753045587</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>28.17405295296095</v>
+        <v>20.20028419698108</v>
       </c>
       <c r="H7">
-        <v>14.19753856184676</v>
+        <v>8.206315405148249</v>
       </c>
       <c r="I7">
-        <v>19.28639911002504</v>
+        <v>10.73464603241543</v>
       </c>
       <c r="J7">
-        <v>9.273496310958683</v>
+        <v>5.697032965087563</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.52319824219246</v>
+        <v>13.20235685157969</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.93506117513978</v>
+        <v>24.20155977866849</v>
       </c>
       <c r="C8">
-        <v>10.88693629131274</v>
+        <v>18.29877795270985</v>
       </c>
       <c r="D8">
-        <v>14.82204290276501</v>
+        <v>12.0393988231037</v>
       </c>
       <c r="E8">
-        <v>16.22387291092954</v>
+        <v>13.02504446053799</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>28.01494546075791</v>
+        <v>20.86944733126277</v>
       </c>
       <c r="H8">
-        <v>14.10711110913554</v>
+        <v>8.107155639315124</v>
       </c>
       <c r="I8">
-        <v>19.06875769444949</v>
+        <v>10.17390378605664</v>
       </c>
       <c r="J8">
-        <v>9.2629433365572</v>
+        <v>5.818428023531211</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.37395760414579</v>
+        <v>13.21951640504196</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.71361224664487</v>
+        <v>27.94132864502695</v>
       </c>
       <c r="C9">
-        <v>12.38077941009831</v>
+        <v>21.08911194166605</v>
       </c>
       <c r="D9">
-        <v>15.00523214745036</v>
+        <v>13.3318196730642</v>
       </c>
       <c r="E9">
-        <v>16.40901713336517</v>
+        <v>14.40325811687421</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>27.811109783795</v>
+        <v>22.48440004433951</v>
       </c>
       <c r="H9">
-        <v>13.95493120571188</v>
+        <v>7.990447876027362</v>
       </c>
       <c r="I9">
-        <v>18.68461377918781</v>
+        <v>9.174684589015447</v>
       </c>
       <c r="J9">
-        <v>9.253567512635106</v>
+        <v>6.076023654302765</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.13398833685594</v>
+        <v>13.43356955918057</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.91014639794101</v>
+        <v>30.41004644615622</v>
       </c>
       <c r="C10">
-        <v>13.36689941352887</v>
+        <v>22.93285527547412</v>
       </c>
       <c r="D10">
-        <v>15.1545746549742</v>
+        <v>14.25025834617904</v>
       </c>
       <c r="E10">
-        <v>16.56151696806935</v>
+        <v>15.38607951788686</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>27.72881607412194</v>
+        <v>23.85322582340982</v>
       </c>
       <c r="H10">
-        <v>13.85853752454554</v>
+        <v>7.960217991640819</v>
       </c>
       <c r="I10">
-        <v>18.42828057701817</v>
+        <v>8.515445648916844</v>
       </c>
       <c r="J10">
-        <v>9.253561731617419</v>
+        <v>6.276703734082473</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.99026917179188</v>
+        <v>13.71512796878734</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.42920841481017</v>
+        <v>31.4737650197628</v>
       </c>
       <c r="C11">
-        <v>13.79098092761027</v>
+        <v>23.72761191762407</v>
       </c>
       <c r="D11">
-        <v>15.2255206544989</v>
+        <v>14.66021166013635</v>
       </c>
       <c r="E11">
-        <v>16.63427635601287</v>
+        <v>15.82554583548561</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>27.7063056236163</v>
+        <v>24.51441364352811</v>
       </c>
       <c r="H11">
-        <v>13.81805050374204</v>
+        <v>7.960353268789031</v>
       </c>
       <c r="I11">
-        <v>18.31727133450416</v>
+        <v>8.236179264060036</v>
       </c>
       <c r="J11">
-        <v>9.255048044525964</v>
+        <v>6.370387849711315</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.93206123393574</v>
+        <v>13.87287227277045</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.62204577407954</v>
+        <v>31.86814170528838</v>
       </c>
       <c r="C12">
-        <v>13.94802703178554</v>
+        <v>24.02231375267447</v>
       </c>
       <c r="D12">
-        <v>15.25280083542013</v>
+        <v>14.81425847764051</v>
       </c>
       <c r="E12">
-        <v>16.66229757798371</v>
+        <v>15.99079720765383</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>27.69994675056454</v>
+        <v>24.77021521576116</v>
       </c>
       <c r="H12">
-        <v>13.80320432953743</v>
+        <v>7.962556926384233</v>
       </c>
       <c r="I12">
-        <v>18.27603889190185</v>
+        <v>8.133890309690106</v>
       </c>
       <c r="J12">
-        <v>9.2558243175234</v>
+        <v>6.406201559026655</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.91105847665222</v>
+        <v>13.93706058209863</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.58068151062172</v>
+        <v>31.783578940887</v>
       </c>
       <c r="C13">
-        <v>13.9143622283031</v>
+        <v>23.95912150163923</v>
       </c>
       <c r="D13">
-        <v>15.24690742549625</v>
+        <v>14.78113563090813</v>
       </c>
       <c r="E13">
-        <v>16.65624215338942</v>
+        <v>15.95526002648344</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>27.7012196680724</v>
+        <v>24.71488424630103</v>
       </c>
       <c r="H13">
-        <v>13.80638010243372</v>
+        <v>7.961984099008045</v>
       </c>
       <c r="I13">
-        <v>18.28488327125296</v>
+        <v>8.155756774252167</v>
       </c>
       <c r="J13">
-        <v>9.255647652251922</v>
+        <v>6.398473506952389</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.91553544283655</v>
+        <v>13.92303561628071</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.44514827422049</v>
+        <v>31.50637899928177</v>
       </c>
       <c r="C14">
-        <v>13.803972330429</v>
+        <v>23.75198217043716</v>
       </c>
       <c r="D14">
-        <v>15.22775681210081</v>
+        <v>14.67290940173935</v>
       </c>
       <c r="E14">
-        <v>16.63657238986948</v>
+        <v>15.83916482377866</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>27.70573897878478</v>
+        <v>24.53535050636448</v>
       </c>
       <c r="H14">
-        <v>13.81681936190753</v>
+        <v>7.960490528140402</v>
       </c>
       <c r="I14">
-        <v>18.31386299947122</v>
+        <v>8.22769118863563</v>
       </c>
       <c r="J14">
-        <v>9.255107635542663</v>
+        <v>6.373327530774763</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.93031244834693</v>
+        <v>13.87806281598837</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.36164339465563</v>
+        <v>31.33549116836269</v>
       </c>
       <c r="C15">
-        <v>13.73589327046192</v>
+        <v>23.62429084203366</v>
       </c>
       <c r="D15">
-        <v>15.21607992967335</v>
+        <v>14.60646070868403</v>
       </c>
       <c r="E15">
-        <v>16.62458459309157</v>
+        <v>15.76789980501296</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>27.70878969971163</v>
+        <v>24.42608405023931</v>
       </c>
       <c r="H15">
-        <v>13.82327697451889</v>
+        <v>7.959860638496751</v>
       </c>
       <c r="I15">
-        <v>18.33171865304028</v>
+        <v>8.272220981041885</v>
       </c>
       <c r="J15">
-        <v>9.254804634107902</v>
+        <v>6.357968691803509</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.93949938276912</v>
+        <v>13.85110094341631</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.87570839600928</v>
+        <v>30.33934470475981</v>
       </c>
       <c r="C16">
-        <v>13.33868963914241</v>
+        <v>22.88003690155272</v>
       </c>
       <c r="D16">
-        <v>15.14999717855406</v>
+        <v>14.22330294731016</v>
       </c>
       <c r="E16">
-        <v>16.55682858336014</v>
+        <v>15.35719954154124</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>27.73058921520664</v>
+        <v>23.81078069376695</v>
       </c>
       <c r="H16">
-        <v>13.86125127042037</v>
+        <v>7.96050182797126</v>
       </c>
       <c r="I16">
-        <v>18.43564788068102</v>
+        <v>8.534151152565757</v>
       </c>
       <c r="J16">
-        <v>9.253494503990256</v>
+        <v>6.27062881346877</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.99421819258124</v>
+        <v>13.70543250054419</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.57106748443991</v>
+        <v>29.71311791851624</v>
       </c>
       <c r="C17">
-        <v>13.08872426015816</v>
+        <v>22.41224542811913</v>
       </c>
       <c r="D17">
-        <v>15.11021556477444</v>
+        <v>13.98618466595516</v>
       </c>
       <c r="E17">
-        <v>16.51611718153361</v>
+        <v>15.10323922261825</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>27.74779969035685</v>
+        <v>23.44309244607872</v>
       </c>
       <c r="H17">
-        <v>13.88540987048092</v>
+        <v>7.96456177608534</v>
       </c>
       <c r="I17">
-        <v>18.50083838363872</v>
+        <v>8.700435973294088</v>
       </c>
       <c r="J17">
-        <v>9.253071691386628</v>
+        <v>6.217656411694583</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.02962885419903</v>
+        <v>13.62380786483059</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.39347390736037</v>
+        <v>29.34733969224082</v>
       </c>
       <c r="C18">
-        <v>12.94264455596891</v>
+        <v>22.13904091203993</v>
       </c>
       <c r="D18">
-        <v>15.08761863156008</v>
+        <v>13.84906418954776</v>
       </c>
       <c r="E18">
-        <v>16.49302095202934</v>
+        <v>14.95645294012555</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>27.75910256995059</v>
+        <v>23.23523889139527</v>
       </c>
       <c r="H18">
-        <v>13.89962168575926</v>
+        <v>7.968194565668663</v>
       </c>
       <c r="I18">
-        <v>18.53886117825355</v>
+        <v>8.797983576283665</v>
       </c>
       <c r="J18">
-        <v>9.252968693581685</v>
+        <v>6.187413697574397</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.05067058125577</v>
+        <v>13.5796415650085</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.33293935146496</v>
+        <v>29.22253061561442</v>
       </c>
       <c r="C19">
-        <v>12.89278909977518</v>
+        <v>22.04582498421118</v>
       </c>
       <c r="D19">
-        <v>15.08001708800867</v>
+        <v>13.80251342246068</v>
       </c>
       <c r="E19">
-        <v>16.48525644607966</v>
+        <v>14.90663329680617</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>27.76317002116985</v>
+        <v>23.16549036037452</v>
       </c>
       <c r="H19">
-        <v>13.90448785476236</v>
+        <v>7.969642736623054</v>
       </c>
       <c r="I19">
-        <v>18.55182556768603</v>
+        <v>8.831325483519484</v>
       </c>
       <c r="J19">
-        <v>9.252957917287134</v>
+        <v>6.177213015916172</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.05791053426872</v>
+        <v>13.5651593278418</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.60374324238435</v>
+        <v>29.78035858691721</v>
       </c>
       <c r="C20">
-        <v>13.11557235299481</v>
+        <v>22.4624709655057</v>
       </c>
       <c r="D20">
-        <v>15.11442108117771</v>
+        <v>14.0115030560621</v>
       </c>
       <c r="E20">
-        <v>16.52041800087036</v>
+        <v>15.13034830591858</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>27.7458221637633</v>
+        <v>23.48185852351675</v>
       </c>
       <c r="H20">
-        <v>13.88280538427261</v>
+        <v>7.963994170988478</v>
       </c>
       <c r="I20">
-        <v>18.49384421186721</v>
+        <v>8.682534295541295</v>
       </c>
       <c r="J20">
-        <v>9.253102195606163</v>
+        <v>6.22327211873217</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.02578946582874</v>
+        <v>13.63220758160796</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.4850592697996</v>
+        <v>31.58802732533658</v>
       </c>
       <c r="C21">
-        <v>13.83649283882946</v>
+        <v>23.8129932095727</v>
       </c>
       <c r="D21">
-        <v>15.23337071217189</v>
+        <v>14.70473087380213</v>
       </c>
       <c r="E21">
-        <v>16.64233730134185</v>
+        <v>15.87329684797936</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>27.70435264203561</v>
+        <v>24.58793757263324</v>
       </c>
       <c r="H21">
-        <v>13.81373991078994</v>
+        <v>7.960869558958986</v>
       </c>
       <c r="I21">
-        <v>18.30532912544147</v>
+        <v>8.206463732731624</v>
       </c>
       <c r="J21">
-        <v>9.255260464720074</v>
+        <v>6.380704395151457</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.92594381196603</v>
+        <v>13.891150142277</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.03933558808188</v>
+        <v>32.72035425281899</v>
       </c>
       <c r="C22">
-        <v>14.28699190517767</v>
+        <v>24.6592127605013</v>
       </c>
       <c r="D22">
-        <v>15.31351804096206</v>
+        <v>15.15082295030444</v>
       </c>
       <c r="E22">
-        <v>16.72474226724418</v>
+        <v>16.35205070788198</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>27.68987812674984</v>
+        <v>25.34239535405016</v>
       </c>
       <c r="H22">
-        <v>13.7714316599566</v>
+        <v>7.971447030622945</v>
       </c>
       <c r="I22">
-        <v>18.18681177917308</v>
+        <v>7.915835812806591</v>
       </c>
       <c r="J22">
-        <v>9.257914719062025</v>
+        <v>6.485561539631545</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.86675059454625</v>
+        <v>14.08641761073224</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.74552033521141</v>
+        <v>32.12046755215113</v>
       </c>
       <c r="C23">
-        <v>14.04844780069682</v>
+        <v>24.21087841228067</v>
       </c>
       <c r="D23">
-        <v>15.27052789925877</v>
+        <v>14.913389123897</v>
       </c>
       <c r="E23">
-        <v>16.68051817929728</v>
+        <v>16.09717019789779</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>27.69644236209484</v>
+        <v>24.93687307923814</v>
       </c>
       <c r="H23">
-        <v>13.79375282215762</v>
+        <v>7.964595014428875</v>
       </c>
       <c r="I23">
-        <v>18.24963792558402</v>
+        <v>8.068874402686125</v>
       </c>
       <c r="J23">
-        <v>9.256384542389037</v>
+        <v>6.429419068814074</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.89778581097265</v>
+        <v>13.97976084307627</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.5889781610148</v>
+        <v>29.74997700466085</v>
       </c>
       <c r="C24">
-        <v>13.10344171471739</v>
+        <v>22.43977728953294</v>
       </c>
       <c r="D24">
-        <v>15.11251891221399</v>
+        <v>14.00005909236632</v>
       </c>
       <c r="E24">
-        <v>16.51847263566404</v>
+        <v>15.11809471686607</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>27.74671181804856</v>
+        <v>23.46432135945069</v>
       </c>
       <c r="H24">
-        <v>13.88398186735103</v>
+        <v>7.964246751938517</v>
       </c>
       <c r="I24">
-        <v>18.49700458257427</v>
+        <v>8.690621611598532</v>
       </c>
       <c r="J24">
-        <v>9.253087968253459</v>
+        <v>6.220732597257983</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.02752312430047</v>
+        <v>13.62840148495611</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.25128556918714</v>
+        <v>26.97898132829379</v>
       </c>
       <c r="C25">
-        <v>11.99607291901273</v>
+        <v>20.37072868270105</v>
       </c>
       <c r="D25">
-        <v>14.95301959731817</v>
+        <v>12.98719159226085</v>
       </c>
       <c r="E25">
-        <v>16.35597486941472</v>
+        <v>14.03515458228282</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>27.85450668910556</v>
+        <v>22.01517900705481</v>
       </c>
       <c r="H25">
-        <v>13.99339927526547</v>
+        <v>8.012877468813334</v>
       </c>
       <c r="I25">
-        <v>18.78398001240804</v>
+        <v>9.433057006945164</v>
       </c>
       <c r="J25">
-        <v>9.254893617482903</v>
+        <v>6.004296319134859</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.19321717036284</v>
+        <v>13.35480407820887</v>
       </c>
     </row>
   </sheetData>
